--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,844 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.22424155680872</v>
+        <v>25.29596888323866</v>
       </c>
       <c r="C2">
-        <v>20.4335219318397</v>
+        <v>13.11887716071809</v>
       </c>
       <c r="D2">
-        <v>2.975758266382083</v>
+        <v>5.167826998117197</v>
       </c>
       <c r="E2">
-        <v>8.687367544539287</v>
+        <v>5.908407627492</v>
       </c>
       <c r="F2">
-        <v>40.36360448476196</v>
+        <v>38.93886120284454</v>
       </c>
       <c r="I2">
-        <v>24.55323191208634</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.692559645309922</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.26355562437002</v>
       </c>
       <c r="L2">
-        <v>13.76078728622017</v>
+        <v>7.509785666861597</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.46363817968974</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.4096514357683</v>
+        <v>23.67966540980061</v>
       </c>
       <c r="C3">
-        <v>18.94316935138319</v>
+        <v>12.21600647943094</v>
       </c>
       <c r="D3">
-        <v>3.048080843331327</v>
+        <v>5.240859657916051</v>
       </c>
       <c r="E3">
-        <v>8.208304810273953</v>
+        <v>5.915184256261919</v>
       </c>
       <c r="F3">
-        <v>38.1556874735044</v>
+        <v>37.22286378516989</v>
       </c>
       <c r="I3">
-        <v>23.62065557948073</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.413379569890346</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.79589356511745</v>
       </c>
       <c r="L3">
-        <v>12.76112810695436</v>
+        <v>7.257654922569038</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.62180124205627</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.24088285152795</v>
+        <v>22.65405918189331</v>
       </c>
       <c r="C4">
-        <v>17.98535215839339</v>
+        <v>11.63535289175271</v>
       </c>
       <c r="D4">
-        <v>3.094011192220565</v>
+        <v>5.287959675730439</v>
       </c>
       <c r="E4">
-        <v>7.910114795177657</v>
+        <v>5.921934421081757</v>
       </c>
       <c r="F4">
-        <v>36.79340571508114</v>
+        <v>36.17333224944715</v>
       </c>
       <c r="I4">
-        <v>23.06449279324767</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.246012277789736</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.88301154557896</v>
       </c>
       <c r="L4">
-        <v>12.11903277243358</v>
+        <v>7.104907545205934</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.72432973794339</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.75057439283693</v>
+        <v>22.22794560081439</v>
       </c>
       <c r="C5">
-        <v>17.58401261030885</v>
+        <v>11.39200389643705</v>
       </c>
       <c r="D5">
-        <v>3.113083868518236</v>
+        <v>5.307694255427748</v>
       </c>
       <c r="E5">
-        <v>7.787659326989262</v>
+        <v>5.925314724551249</v>
       </c>
       <c r="F5">
-        <v>36.2368967742552</v>
+        <v>35.74698769827009</v>
       </c>
       <c r="I5">
-        <v>22.84195784863027</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.178832008497903</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.54472796309843</v>
       </c>
       <c r="L5">
-        <v>11.85006835032994</v>
+        <v>7.043225853887436</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.76741501752122</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.66830375370209</v>
+        <v>22.15670329178742</v>
       </c>
       <c r="C6">
-        <v>17.51669722572397</v>
+        <v>11.35118646674969</v>
       </c>
       <c r="D6">
-        <v>3.116271675273401</v>
+        <v>5.311003140483077</v>
       </c>
       <c r="E6">
-        <v>7.76727176013023</v>
+        <v>5.92591344009091</v>
       </c>
       <c r="F6">
-        <v>36.1444177658625</v>
+        <v>35.67628568211646</v>
       </c>
       <c r="I6">
-        <v>22.80525372242909</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.16773889068348</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.48816738292627</v>
       </c>
       <c r="L6">
-        <v>11.80496055617732</v>
+        <v>7.033019184377759</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.77464651590477</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.23432754308955</v>
+        <v>22.64834524584924</v>
       </c>
       <c r="C7">
-        <v>17.9799845246466</v>
+        <v>11.63209838857359</v>
       </c>
       <c r="D7">
-        <v>3.094267004352622</v>
+        <v>5.288223665042083</v>
       </c>
       <c r="E7">
-        <v>7.908467001044857</v>
+        <v>5.921977487483954</v>
       </c>
       <c r="F7">
-        <v>36.78590548101462</v>
+        <v>36.16757648357648</v>
       </c>
       <c r="I7">
-        <v>23.06147500330383</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.245102104979266</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.87847553213513</v>
       </c>
       <c r="L7">
-        <v>12.115435242031</v>
+        <v>7.104073335195993</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.72490559159058</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.60971767367639</v>
+        <v>24.74563130412321</v>
       </c>
       <c r="C8">
-        <v>19.928344348097</v>
+        <v>12.81294769836216</v>
       </c>
       <c r="D8">
-        <v>3.000359949625473</v>
+        <v>5.192522500120029</v>
       </c>
       <c r="E8">
-        <v>8.523060951250837</v>
+        <v>5.910193410324228</v>
       </c>
       <c r="F8">
-        <v>39.60381522774826</v>
+        <v>38.34649993559481</v>
       </c>
       <c r="I8">
-        <v>24.22823962304821</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.595457175873587</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.76641722498806</v>
       </c>
       <c r="L8">
-        <v>13.42185963810767</v>
+        <v>7.422448093395159</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.51701151768651</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.84944339176339</v>
+        <v>28.72795241485908</v>
       </c>
       <c r="C9">
-        <v>23.42387416594692</v>
+        <v>14.92615032385884</v>
       </c>
       <c r="D9">
-        <v>2.829994856175261</v>
+        <v>5.024250016668554</v>
       </c>
       <c r="E9">
-        <v>9.694724377894042</v>
+        <v>5.90867707004957</v>
       </c>
       <c r="F9">
-        <v>45.07307372655809</v>
+        <v>42.64267710329975</v>
       </c>
       <c r="I9">
-        <v>26.65025766599796</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.315157392205865</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.196861323983</v>
       </c>
       <c r="L9">
-        <v>15.76869392818701</v>
+        <v>8.061604203971012</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>14.15536418934949</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.73277163492947</v>
+        <v>31.57778379014756</v>
       </c>
       <c r="C10">
-        <v>25.8158610134668</v>
+        <v>16.36518828866087</v>
       </c>
       <c r="D10">
-        <v>2.716549026591657</v>
+        <v>4.915039625589138</v>
       </c>
       <c r="E10">
-        <v>10.66623345389668</v>
+        <v>5.922316781556045</v>
       </c>
       <c r="F10">
-        <v>49.06520756781057</v>
+        <v>45.80899655724316</v>
       </c>
       <c r="I10">
-        <v>28.52106505558141</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.866020693305133</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.5279257023652</v>
       </c>
       <c r="L10">
-        <v>17.37684915832761</v>
+        <v>8.539062463238418</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.9228272313526</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.00038677584234</v>
+        <v>32.83190623320355</v>
       </c>
       <c r="C11">
-        <v>26.87166010497381</v>
+        <v>16.99780631190224</v>
       </c>
       <c r="D11">
-        <v>2.668604564152372</v>
+        <v>4.869258324754144</v>
       </c>
       <c r="E11">
-        <v>11.10963743884201</v>
+        <v>5.932122619583047</v>
       </c>
       <c r="F11">
-        <v>50.8837766990453</v>
+        <v>47.25321698761203</v>
       </c>
       <c r="I11">
-        <v>29.39585727674675</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.12242971392488</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.55128710898329</v>
       </c>
       <c r="L11">
-        <v>18.08723139962697</v>
+        <v>8.758035420931568</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.82567462911611</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.47468418325696</v>
+        <v>33.30115118404803</v>
       </c>
       <c r="C12">
-        <v>27.2674022143402</v>
+        <v>17.23445318501932</v>
       </c>
       <c r="D12">
-        <v>2.651108606764997</v>
+        <v>4.852565834691474</v>
       </c>
       <c r="E12">
-        <v>11.27596033229591</v>
+        <v>5.936391159967458</v>
       </c>
       <c r="F12">
-        <v>51.61847534007556</v>
+        <v>47.80097729409146</v>
       </c>
       <c r="I12">
-        <v>29.73101296953152</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.251788934376535</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.93386685366828</v>
       </c>
       <c r="L12">
-        <v>18.3535876049496</v>
+        <v>8.84123804376363</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.7902746211717</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.37277937633451</v>
+        <v>33.20033535531696</v>
       </c>
       <c r="C13">
-        <v>27.18234254750163</v>
+        <v>17.18361211830173</v>
       </c>
       <c r="D13">
-        <v>2.654844798514613</v>
+        <v>4.856130706031199</v>
       </c>
       <c r="E13">
-        <v>11.24020578693053</v>
+        <v>5.93544651291237</v>
       </c>
       <c r="F13">
-        <v>51.46028221881109</v>
+        <v>47.68296213825167</v>
       </c>
       <c r="I13">
-        <v>29.65864892852882</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.221893504871627</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.85168470334392</v>
       </c>
       <c r="L13">
-        <v>18.29633387898555</v>
+        <v>8.823305654906651</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.79783418779921</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0395183076273</v>
+        <v>32.87062215921758</v>
       </c>
       <c r="C14">
-        <v>26.90429584126174</v>
+        <v>17.01733216723202</v>
       </c>
       <c r="D14">
-        <v>2.66715104097726</v>
+        <v>4.867871578566906</v>
       </c>
       <c r="E14">
-        <v>11.12335110821614</v>
+        <v>5.932462435933865</v>
       </c>
       <c r="F14">
-        <v>50.94423938381932</v>
+        <v>47.29826185670498</v>
       </c>
       <c r="I14">
-        <v>29.42334949046018</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9.130477074949127</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.58285889152989</v>
       </c>
       <c r="L14">
-        <v>18.10919529502598</v>
+        <v>8.76487466196728</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.82273345260552</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.83466107376317</v>
+        <v>32.6679393225648</v>
       </c>
       <c r="C15">
-        <v>26.7334736726084</v>
+        <v>16.91510983289012</v>
       </c>
       <c r="D15">
-        <v>2.674779474284424</v>
+        <v>4.875149828689866</v>
       </c>
       <c r="E15">
-        <v>11.05157596647843</v>
+        <v>5.930708103565269</v>
       </c>
       <c r="F15">
-        <v>50.64228306025982</v>
+        <v>47.06274650665998</v>
       </c>
       <c r="I15">
-        <v>29.27974519417332</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>9.088434979263971</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.41756362694213</v>
       </c>
       <c r="L15">
-        <v>17.99423524489799</v>
+        <v>8.729121922032574</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.83817080301971</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.64909400170079</v>
+        <v>31.49500700527692</v>
       </c>
       <c r="C16">
-        <v>25.74625914774771</v>
+        <v>16.32342314226592</v>
       </c>
       <c r="D16">
-        <v>2.719766515272582</v>
+        <v>4.918116721010501</v>
       </c>
       <c r="E16">
-        <v>10.63701978497108</v>
+        <v>5.921751513518222</v>
       </c>
       <c r="F16">
-        <v>48.94656379493988</v>
+        <v>45.71471387941838</v>
       </c>
       <c r="I16">
-        <v>28.46441055776856</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.849390859517978</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.46033258580724</v>
       </c>
       <c r="L16">
-        <v>17.33003018347691</v>
+        <v>8.524789624167187</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.92936214529422</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.91091484751257</v>
+        <v>30.7648947674099</v>
       </c>
       <c r="C17">
-        <v>25.13273997807063</v>
+        <v>15.95497442245955</v>
       </c>
       <c r="D17">
-        <v>2.748385733372297</v>
+        <v>4.945528050396624</v>
       </c>
       <c r="E17">
-        <v>10.37960275460814</v>
+        <v>5.917204577542176</v>
       </c>
       <c r="F17">
-        <v>47.90693874642761</v>
+        <v>44.88889796193457</v>
       </c>
       <c r="I17">
-        <v>27.97060548280673</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.70431358967687</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.86386866740379</v>
       </c>
       <c r="L17">
-        <v>16.9173993891913</v>
+        <v>8.399905791750042</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.98761303812532</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.48214811972075</v>
+        <v>30.34094475471633</v>
       </c>
       <c r="C18">
-        <v>24.77677713144097</v>
+        <v>15.74096385989991</v>
       </c>
       <c r="D18">
-        <v>2.765181570523581</v>
+        <v>4.961655400651781</v>
       </c>
       <c r="E18">
-        <v>10.23032664486955</v>
+        <v>5.914925772917518</v>
       </c>
       <c r="F18">
-        <v>47.30896136744918</v>
+        <v>44.41424465864296</v>
       </c>
       <c r="I18">
-        <v>27.68878111572216</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.621406629425314</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.51728510014519</v>
       </c>
       <c r="L18">
-        <v>16.67804483511094</v>
+        <v>8.328240158775248</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>14.02191933951785</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.3362391786913</v>
+        <v>30.19670258632966</v>
       </c>
       <c r="C19">
-        <v>24.65570853868219</v>
+        <v>15.6681377258632</v>
       </c>
       <c r="D19">
-        <v>2.770922409021134</v>
+        <v>4.967175601190109</v>
       </c>
       <c r="E19">
-        <v>10.17956844936604</v>
+        <v>5.914210926052155</v>
       </c>
       <c r="F19">
-        <v>47.10647371101132</v>
+        <v>44.25358561322631</v>
       </c>
       <c r="I19">
-        <v>27.59372583504834</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.593424867423016</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.39932363050459</v>
       </c>
       <c r="L19">
-        <v>16.5966455218566</v>
+        <v>8.30400312440689</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>14.03366848581661</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.98992436741023</v>
+        <v>30.84302857777429</v>
       </c>
       <c r="C20">
-        <v>25.19836529146198</v>
+        <v>15.99441086552185</v>
       </c>
       <c r="D20">
-        <v>2.745303673472922</v>
+        <v>4.942572149533234</v>
       </c>
       <c r="E20">
-        <v>10.40712948687321</v>
+        <v>5.917653525377582</v>
       </c>
       <c r="F20">
-        <v>48.01760481874216</v>
+        <v>44.97677112585372</v>
       </c>
       <c r="I20">
-        <v>28.02294128942325</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.719700873201914</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.92772427748073</v>
       </c>
       <c r="L20">
-        <v>16.96153107406728</v>
+        <v>8.41318275985093</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.98132814098174</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.13755505815132</v>
+        <v>32.96761694373818</v>
       </c>
       <c r="C21">
-        <v>26.98607010812909</v>
+        <v>17.06624944314475</v>
       </c>
       <c r="D21">
-        <v>2.663517244015122</v>
+        <v>4.864404772527323</v>
       </c>
       <c r="E21">
-        <v>11.15771497659705</v>
+        <v>5.933323540929309</v>
       </c>
       <c r="F21">
-        <v>51.09583859783181</v>
+        <v>47.41123088657633</v>
       </c>
       <c r="I21">
-        <v>29.49235249338654</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>9.152946464144907</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.661950430901</v>
       </c>
       <c r="L21">
-        <v>18.16423087461013</v>
+        <v>8.782029277662538</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.81538090382079</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.50817145671409</v>
+        <v>34.32339392859435</v>
       </c>
       <c r="C22">
-        <v>28.13108604470797</v>
+        <v>17.74993144910763</v>
       </c>
       <c r="D22">
-        <v>2.61400170779199</v>
+        <v>4.817123202446458</v>
       </c>
       <c r="E22">
-        <v>11.639177599453</v>
+        <v>5.946822155136075</v>
       </c>
       <c r="F22">
-        <v>53.2331955384983</v>
+        <v>49.00759802652073</v>
       </c>
       <c r="I22">
-        <v>30.47571401937941</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.555875383078375</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.76676334186052</v>
       </c>
       <c r="L22">
-        <v>18.93505289438756</v>
+        <v>9.024765713903578</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>13.71511363660035</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.77943635013056</v>
+        <v>33.60263036646713</v>
       </c>
       <c r="C23">
-        <v>27.52188624813685</v>
+        <v>17.38648335069598</v>
       </c>
       <c r="D23">
-        <v>2.640014174689907</v>
+        <v>4.841977735597477</v>
       </c>
       <c r="E23">
-        <v>11.38294996553847</v>
+        <v>5.939306067346309</v>
       </c>
       <c r="F23">
-        <v>52.09266348541025</v>
+        <v>48.15495556517249</v>
       </c>
       <c r="I23">
-        <v>29.94857081215288</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.341286965842173</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.1795798433045</v>
       </c>
       <c r="L23">
-        <v>18.52489364001477</v>
+        <v>8.895044922148459</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.7678224964254</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.95421784353778</v>
+        <v>30.80771739071774</v>
       </c>
       <c r="C24">
-        <v>25.16870622934236</v>
+        <v>15.97658847235337</v>
       </c>
       <c r="D24">
-        <v>2.746696016211626</v>
+        <v>4.943907371485281</v>
       </c>
       <c r="E24">
-        <v>10.3946886674613</v>
+        <v>5.917449514475981</v>
       </c>
       <c r="F24">
-        <v>47.96757362760455</v>
+        <v>44.93704331845257</v>
       </c>
       <c r="I24">
-        <v>27.99927385514552</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.712742734290007</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.89886661094605</v>
       </c>
       <c r="L24">
-        <v>16.94158579508699</v>
+        <v>8.407179833963601</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.98416700885597</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74503382143606</v>
+        <v>27.63861608894003</v>
       </c>
       <c r="C25">
-        <v>22.51095128678167</v>
+        <v>14.37520493890592</v>
       </c>
       <c r="D25">
-        <v>2.874324678698253</v>
+        <v>5.067460761109587</v>
       </c>
       <c r="E25">
-        <v>9.381404757589348</v>
+        <v>5.906620259709064</v>
       </c>
       <c r="F25">
-        <v>43.59941738867749</v>
+        <v>41.47881765780493</v>
       </c>
       <c r="I25">
-        <v>25.97996520363072</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.11681900482907</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.30329847296482</v>
       </c>
       <c r="L25">
-        <v>15.15540048064512</v>
+        <v>7.887277506322961</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.24779771114378</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -421,19 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29596888323866</v>
+        <v>24.40249099734715</v>
       </c>
       <c r="C2">
-        <v>13.11887716071809</v>
+        <v>13.42355210277949</v>
       </c>
       <c r="D2">
-        <v>5.167826998117197</v>
+        <v>10.21530645666399</v>
       </c>
       <c r="E2">
-        <v>5.908407627492</v>
+        <v>6.700241323299585</v>
       </c>
       <c r="F2">
-        <v>38.93886120284454</v>
+        <v>63.74875494426458</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.26355562437002</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.509785666861597</v>
+        <v>7.345814342746153</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.46363817968974</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.67966540980061</v>
+        <v>22.58884491847538</v>
       </c>
       <c r="C3">
-        <v>12.21600647943094</v>
+        <v>12.47700286369515</v>
       </c>
       <c r="D3">
-        <v>5.240859657916051</v>
+        <v>9.7906135991654</v>
       </c>
       <c r="E3">
-        <v>5.915184256261919</v>
+        <v>6.644159631353544</v>
       </c>
       <c r="F3">
-        <v>37.22286378516989</v>
+        <v>59.99881714449824</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.79589356511745</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.257654922569038</v>
+        <v>7.101024867761706</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.62180124205627</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.65405918189331</v>
+        <v>21.43923032749473</v>
       </c>
       <c r="C4">
-        <v>11.63535289175271</v>
+        <v>11.87398742956767</v>
       </c>
       <c r="D4">
-        <v>5.287959675730439</v>
+        <v>9.528965691489686</v>
       </c>
       <c r="E4">
-        <v>5.921934421081757</v>
+        <v>6.611890743402177</v>
       </c>
       <c r="F4">
-        <v>36.17333224944715</v>
+        <v>57.64857092302821</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.88301154557896</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.104907545205934</v>
+        <v>6.954775072853941</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.72432973794339</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.22794560081439</v>
+        <v>21.01380453350935</v>
       </c>
       <c r="C5">
-        <v>11.39200389643705</v>
+        <v>11.62250765060705</v>
       </c>
       <c r="D5">
-        <v>5.307694255427748</v>
+        <v>9.422085960309632</v>
       </c>
       <c r="E5">
-        <v>5.925314724551249</v>
+        <v>6.599240728075384</v>
       </c>
       <c r="F5">
-        <v>35.74698769827009</v>
+        <v>56.67883112412267</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.54472796309843</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.043225853887436</v>
+        <v>6.896196291831988</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.76741501752122</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.15670329178742</v>
+        <v>20.94279183051145</v>
       </c>
       <c r="C6">
-        <v>11.35118646674969</v>
+        <v>11.58039574949907</v>
       </c>
       <c r="D6">
-        <v>5.311003140483077</v>
+        <v>9.404322644267079</v>
       </c>
       <c r="E6">
-        <v>5.92591344009091</v>
+        <v>6.597169170464184</v>
       </c>
       <c r="F6">
-        <v>35.67628568211646</v>
+        <v>56.51708761714496</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.48816738292627</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.033019184377759</v>
+        <v>6.886531078667669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.77464651590477</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.64834524584924</v>
+        <v>21.43351785688803</v>
       </c>
       <c r="C7">
-        <v>11.63209838857359</v>
+        <v>11.87061946449841</v>
       </c>
       <c r="D7">
-        <v>5.288223665042083</v>
+        <v>9.527525338840547</v>
       </c>
       <c r="E7">
-        <v>5.921977487483954</v>
+        <v>6.611718172843455</v>
       </c>
       <c r="F7">
-        <v>36.16757648357648</v>
+        <v>57.63554102903433</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.87847553213513</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.104073335195993</v>
+        <v>6.95398092468214</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.72490559159058</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.74563130412321</v>
+        <v>23.78547351943028</v>
       </c>
       <c r="C8">
-        <v>12.81294769836216</v>
+        <v>13.10154653956811</v>
       </c>
       <c r="D8">
-        <v>5.192522500120029</v>
+        <v>10.06902815564243</v>
       </c>
       <c r="E8">
-        <v>5.910193410324228</v>
+        <v>6.68042643048294</v>
       </c>
       <c r="F8">
-        <v>38.34649993559481</v>
+        <v>62.46561711474475</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.76641722498806</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.422448093395159</v>
+        <v>7.260566589944943</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.51701151768651</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.72795241485908</v>
+        <v>28.10048253386785</v>
       </c>
       <c r="C9">
-        <v>14.92615032385884</v>
+        <v>15.35596670369001</v>
       </c>
       <c r="D9">
-        <v>5.024250016668554</v>
+        <v>11.12688965659644</v>
       </c>
       <c r="E9">
-        <v>5.90867707004957</v>
+        <v>6.834665687690224</v>
       </c>
       <c r="F9">
-        <v>42.64267710329975</v>
+        <v>71.57276510281571</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.196861323983</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.061604203971012</v>
+        <v>7.894685073570069</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.15536418934949</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.57778379014756</v>
+        <v>31.11495471223715</v>
       </c>
       <c r="C10">
-        <v>16.36518828866087</v>
+        <v>16.93849129977469</v>
       </c>
       <c r="D10">
-        <v>4.915039625589138</v>
+        <v>11.90852353491595</v>
       </c>
       <c r="E10">
-        <v>5.922316781556045</v>
+        <v>6.963718410336968</v>
       </c>
       <c r="F10">
-        <v>45.80899655724316</v>
+        <v>78.08553589148531</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.5279257023652</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.539062463238418</v>
+        <v>8.383280139891417</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.9228272313526</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.83190623320355</v>
+        <v>32.46244631515259</v>
       </c>
       <c r="C11">
-        <v>16.99780631190224</v>
+        <v>17.6491522818926</v>
       </c>
       <c r="D11">
-        <v>4.869258324754144</v>
+        <v>12.26754359215141</v>
       </c>
       <c r="E11">
-        <v>5.932122619583047</v>
+        <v>7.026934288166903</v>
       </c>
       <c r="F11">
-        <v>47.25321698761203</v>
+        <v>81.02705193673897</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.55128710898329</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.758035420931568</v>
+        <v>8.611667934897721</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.82567462911611</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.30115118404803</v>
+        <v>32.97037140209698</v>
       </c>
       <c r="C12">
-        <v>17.23445318501932</v>
+        <v>17.91765494062289</v>
       </c>
       <c r="D12">
-        <v>4.852565834691474</v>
+        <v>12.40428466501382</v>
       </c>
       <c r="E12">
-        <v>5.936391159967458</v>
+        <v>7.051636700831429</v>
       </c>
       <c r="F12">
-        <v>47.80097729409146</v>
+        <v>82.13997509466743</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.93386685366828</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.84123804376363</v>
+        <v>8.734217822911731</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.7902746211717</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.20033535531696</v>
+        <v>32.86106467757055</v>
       </c>
       <c r="C13">
-        <v>17.18361211830173</v>
+        <v>17.85984193493158</v>
       </c>
       <c r="D13">
-        <v>4.856130706031199</v>
+        <v>12.37479439528938</v>
       </c>
       <c r="E13">
-        <v>5.93544651291237</v>
+        <v>7.046280493752541</v>
       </c>
       <c r="F13">
-        <v>47.68296213825167</v>
+        <v>81.90029026368286</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.85168470334392</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.823305654906651</v>
+        <v>8.706373265234735</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.79783418779921</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.87062215921758</v>
+        <v>32.50427339354424</v>
       </c>
       <c r="C14">
-        <v>17.01733216723202</v>
+        <v>17.67124965546117</v>
       </c>
       <c r="D14">
-        <v>4.867871578566906</v>
+        <v>12.27877558848214</v>
       </c>
       <c r="E14">
-        <v>5.932462435933865</v>
+        <v>7.028950504647563</v>
       </c>
       <c r="F14">
-        <v>47.29826185670498</v>
+        <v>81.11861800431987</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.58285889152989</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.76487466196728</v>
+        <v>8.618846399486308</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.82273345260552</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.6679393225648</v>
+        <v>32.28546015736527</v>
       </c>
       <c r="C15">
-        <v>16.91510983289012</v>
+        <v>17.55567624629563</v>
       </c>
       <c r="D15">
-        <v>4.875149828689866</v>
+        <v>12.220074045696</v>
       </c>
       <c r="E15">
-        <v>5.930708103565269</v>
+        <v>7.018438744955252</v>
       </c>
       <c r="F15">
-        <v>47.06274650665998</v>
+        <v>80.6397677467354</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.41756362694213</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.729121922032574</v>
+        <v>8.581350959246119</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.83817080301971</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.49500700527692</v>
+        <v>31.02650076264933</v>
       </c>
       <c r="C16">
-        <v>16.32342314226592</v>
+        <v>16.89191992505418</v>
       </c>
       <c r="D16">
-        <v>4.918116721010501</v>
+        <v>11.88515321071555</v>
       </c>
       <c r="E16">
-        <v>5.921751513518222</v>
+        <v>6.959687145888576</v>
       </c>
       <c r="F16">
-        <v>45.71471387941838</v>
+        <v>77.89303898081808</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.46033258580724</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.524789624167187</v>
+        <v>8.36848955284322</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.92936214529422</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.7648947674099</v>
+        <v>30.24876608177447</v>
       </c>
       <c r="C17">
-        <v>15.95497442245955</v>
+        <v>16.4828243564591</v>
       </c>
       <c r="D17">
-        <v>4.945528050396624</v>
+        <v>11.68075598824985</v>
       </c>
       <c r="E17">
-        <v>5.917204577542176</v>
+        <v>6.924874412146449</v>
       </c>
       <c r="F17">
-        <v>44.88889796193457</v>
+        <v>76.20388231868367</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.86386866740379</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.399905791750042</v>
+        <v>8.239566885304892</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.98761303812532</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.34094475471633</v>
+        <v>29.79911487798096</v>
       </c>
       <c r="C18">
-        <v>15.74096385989991</v>
+        <v>16.24660273086623</v>
       </c>
       <c r="D18">
-        <v>4.961655400651781</v>
+        <v>11.56349505426645</v>
       </c>
       <c r="E18">
-        <v>5.914925772917518</v>
+        <v>6.905267273537989</v>
       </c>
       <c r="F18">
-        <v>44.41424465864296</v>
+        <v>75.23017422558121</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.51728510014519</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>8.328240158775248</v>
+        <v>8.165978347907805</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.02191933951785</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.19670258632966</v>
+        <v>29.64644345618427</v>
       </c>
       <c r="C19">
-        <v>15.6681377258632</v>
+        <v>16.16644462653622</v>
       </c>
       <c r="D19">
-        <v>4.967175601190109</v>
+        <v>11.52383698936374</v>
       </c>
       <c r="E19">
-        <v>5.914210926052155</v>
+        <v>6.898696998000979</v>
       </c>
       <c r="F19">
-        <v>44.25358561322631</v>
+        <v>74.90007033452969</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.39932363050459</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>8.30400312440689</v>
+        <v>8.141155653884846</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.03366848581661</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.84302857777429</v>
+        <v>30.33179020607498</v>
       </c>
       <c r="C20">
-        <v>15.99441086552185</v>
+        <v>16.52646385918352</v>
       </c>
       <c r="D20">
-        <v>4.942572149533234</v>
+        <v>11.70248122043885</v>
       </c>
       <c r="E20">
-        <v>5.917653525377582</v>
+        <v>6.928536452215981</v>
       </c>
       <c r="F20">
-        <v>44.97677112585372</v>
+        <v>76.38390526551571</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.92772427748073</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.41318275985093</v>
+        <v>8.253231574468659</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.98132814098174</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.96761694373818</v>
+        <v>32.60912523759166</v>
       </c>
       <c r="C21">
-        <v>17.06624944314475</v>
+        <v>17.72665375638091</v>
       </c>
       <c r="D21">
-        <v>4.864404772527323</v>
+        <v>12.30695449574187</v>
       </c>
       <c r="E21">
-        <v>5.933323540929309</v>
+        <v>7.034018958120621</v>
       </c>
       <c r="F21">
-        <v>47.41123088657633</v>
+        <v>81.34822061715376</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.661950430901</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.782029277662538</v>
+        <v>8.642167101049568</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.81538090382079</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.32339392859435</v>
+        <v>34.08455790423585</v>
       </c>
       <c r="C22">
-        <v>17.74993144910763</v>
+        <v>18.5079599594027</v>
       </c>
       <c r="D22">
-        <v>4.817123202446458</v>
+        <v>12.70680859316675</v>
       </c>
       <c r="E22">
-        <v>5.946822155136075</v>
+        <v>7.10748490429669</v>
       </c>
       <c r="F22">
-        <v>49.00759802652073</v>
+        <v>84.58850682557998</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.76676334186052</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>9.024765713903578</v>
+        <v>9.017631741535183</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.71511363660035</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.60263036646713</v>
+        <v>33.29784560286284</v>
       </c>
       <c r="C23">
-        <v>17.38648335069598</v>
+        <v>18.09096105795743</v>
       </c>
       <c r="D23">
-        <v>4.841977735597477</v>
+        <v>12.49283975905387</v>
       </c>
       <c r="E23">
-        <v>5.939306067346309</v>
+        <v>7.067815064795468</v>
       </c>
       <c r="F23">
-        <v>48.15495556517249</v>
+        <v>82.85863004968489</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.1795798433045</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.895044922148459</v>
+        <v>8.817594570426515</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.7678224964254</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.80771739071774</v>
+        <v>30.29426293058116</v>
       </c>
       <c r="C24">
-        <v>15.97658847235337</v>
+        <v>16.50673769131933</v>
       </c>
       <c r="D24">
-        <v>4.943907371485281</v>
+        <v>11.69265848588003</v>
       </c>
       <c r="E24">
-        <v>5.917449514475981</v>
+        <v>6.92687958403172</v>
       </c>
       <c r="F24">
-        <v>44.93704331845257</v>
+        <v>76.30252510540338</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.89886661094605</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.407179833963601</v>
+        <v>8.247052125894076</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.98416700885597</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.63861608894003</v>
+        <v>26.96332235859838</v>
       </c>
       <c r="C25">
-        <v>14.37520493890592</v>
+        <v>14.76099858419079</v>
       </c>
       <c r="D25">
-        <v>5.067460761109587</v>
+        <v>10.84058430898997</v>
       </c>
       <c r="E25">
-        <v>5.906620259709064</v>
+        <v>6.790494130169219</v>
       </c>
       <c r="F25">
-        <v>41.47881765780493</v>
+        <v>69.14481232489452</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.30329847296482</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.887277506322961</v>
+        <v>7.719434172406825</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.24779771114378</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.40249099734715</v>
+        <v>22.04848781383541</v>
       </c>
       <c r="C2">
-        <v>13.42355210277949</v>
+        <v>7.086576677024649</v>
       </c>
       <c r="D2">
-        <v>10.21530645666399</v>
+        <v>9.7727564605112</v>
       </c>
       <c r="E2">
-        <v>6.700241323299585</v>
+        <v>10.02013192933921</v>
       </c>
       <c r="F2">
-        <v>63.74875494426458</v>
+        <v>51.48609614823078</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.345814342746153</v>
+        <v>10.38116335073147</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58884491847538</v>
+        <v>21.76138917492582</v>
       </c>
       <c r="C3">
-        <v>12.47700286369515</v>
+        <v>6.6278303474271</v>
       </c>
       <c r="D3">
-        <v>9.7906135991654</v>
+        <v>9.654196310774976</v>
       </c>
       <c r="E3">
-        <v>6.644159631353544</v>
+        <v>10.0179263290129</v>
       </c>
       <c r="F3">
-        <v>59.99881714449824</v>
+        <v>50.3393507490849</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.101024867761706</v>
+        <v>10.37744982034068</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43923032749473</v>
+        <v>21.59331492376993</v>
       </c>
       <c r="C4">
-        <v>11.87398742956767</v>
+        <v>6.329235690193406</v>
       </c>
       <c r="D4">
-        <v>9.528965691489686</v>
+        <v>9.581002176144137</v>
       </c>
       <c r="E4">
-        <v>6.611890743402177</v>
+        <v>10.01709169825472</v>
       </c>
       <c r="F4">
-        <v>57.64857092302821</v>
+        <v>49.63020320537576</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.954775072853941</v>
+        <v>10.37764010772768</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01380453350935</v>
+        <v>21.52698135237781</v>
       </c>
       <c r="C5">
-        <v>11.62250765060705</v>
+        <v>6.203291610621427</v>
       </c>
       <c r="D5">
-        <v>9.422085960309632</v>
+        <v>9.55108964639291</v>
       </c>
       <c r="E5">
-        <v>6.599240728075384</v>
+        <v>10.0168817615722</v>
       </c>
       <c r="F5">
-        <v>56.67883112412267</v>
+        <v>49.34028504998999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.896196291831988</v>
+        <v>10.37833839773075</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94279183051145</v>
+        <v>21.51609971108215</v>
       </c>
       <c r="C6">
-        <v>11.58039574949907</v>
+        <v>6.182120904925941</v>
       </c>
       <c r="D6">
-        <v>9.404322644267079</v>
+        <v>9.54611796555937</v>
       </c>
       <c r="E6">
-        <v>6.597169170464184</v>
+        <v>10.01685475019237</v>
       </c>
       <c r="F6">
-        <v>56.51708761714496</v>
+        <v>49.29209781294151</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.886531078667669</v>
+        <v>10.37849181934008</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43351785688803</v>
+        <v>21.59241146710758</v>
       </c>
       <c r="C7">
-        <v>11.87061946449841</v>
+        <v>6.327554441327651</v>
       </c>
       <c r="D7">
-        <v>9.527525338840547</v>
+        <v>9.58059909153673</v>
       </c>
       <c r="E7">
-        <v>6.611718172843455</v>
+        <v>10.01708834051207</v>
       </c>
       <c r="F7">
-        <v>57.63554102903433</v>
+        <v>49.62629660586732</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.95398092468214</v>
+        <v>10.37764701258595</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78547351943028</v>
+        <v>21.9478516463581</v>
       </c>
       <c r="C8">
-        <v>13.10154653956811</v>
+        <v>6.931907290069591</v>
       </c>
       <c r="D8">
-        <v>10.06902815564243</v>
+        <v>9.731968318559584</v>
       </c>
       <c r="E8">
-        <v>6.68042643048294</v>
+        <v>10.01926330444802</v>
       </c>
       <c r="F8">
-        <v>62.46561711474475</v>
+        <v>51.09194122699876</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.260566589944943</v>
+        <v>10.37937001928296</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10048253386785</v>
+        <v>22.70556283401938</v>
       </c>
       <c r="C9">
-        <v>15.35596670369001</v>
+        <v>7.983254905178049</v>
       </c>
       <c r="D9">
-        <v>11.12688965659644</v>
+        <v>10.02500069203513</v>
       </c>
       <c r="E9">
-        <v>6.834665687690224</v>
+        <v>10.0276734980628</v>
       </c>
       <c r="F9">
-        <v>71.57276510281571</v>
+        <v>53.91201034155094</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.894685073570069</v>
+        <v>10.4023569889279</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.11495471223715</v>
+        <v>23.29308280119709</v>
       </c>
       <c r="C10">
-        <v>16.93849129977469</v>
+        <v>8.674878739815446</v>
       </c>
       <c r="D10">
-        <v>11.90852353491595</v>
+        <v>10.23711248379187</v>
       </c>
       <c r="E10">
-        <v>6.963718410336968</v>
+        <v>10.03641090551793</v>
       </c>
       <c r="F10">
-        <v>78.08553589148531</v>
+        <v>55.93310628958029</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.383280139891417</v>
+        <v>10.4311880355025</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.46244631515259</v>
+        <v>23.56570214304285</v>
       </c>
       <c r="C11">
-        <v>17.6491522818926</v>
+        <v>8.972149898703801</v>
       </c>
       <c r="D11">
-        <v>12.26754359215141</v>
+        <v>10.33273607416815</v>
       </c>
       <c r="E11">
-        <v>7.026934288166903</v>
+        <v>10.04094794405023</v>
       </c>
       <c r="F11">
-        <v>81.02705193673897</v>
+        <v>56.83805544552235</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.611667934897721</v>
+        <v>10.44688716086001</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.97037140209698</v>
+        <v>23.66959241502695</v>
       </c>
       <c r="C12">
-        <v>17.91765494062289</v>
+        <v>9.082238192239862</v>
       </c>
       <c r="D12">
-        <v>12.40428466501382</v>
+        <v>10.36880640503173</v>
       </c>
       <c r="E12">
-        <v>7.051636700831429</v>
+        <v>10.04274735343877</v>
       </c>
       <c r="F12">
-        <v>82.13997509466743</v>
+        <v>57.17839089387275</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.734217822911731</v>
+        <v>10.45320200225986</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.86106467757055</v>
+        <v>23.6471904552624</v>
       </c>
       <c r="C13">
-        <v>17.85984193493158</v>
+        <v>9.058638872222669</v>
       </c>
       <c r="D13">
-        <v>12.37479439528938</v>
+        <v>10.36104449596189</v>
       </c>
       <c r="E13">
-        <v>7.046280493752541</v>
+        <v>10.04235619390333</v>
       </c>
       <c r="F13">
-        <v>81.90029026368286</v>
+        <v>57.10520215084104</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.706373265234735</v>
+        <v>10.45182556552832</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.50427339354424</v>
+        <v>23.57423677825718</v>
       </c>
       <c r="C14">
-        <v>17.67124965546117</v>
+        <v>8.981256590749267</v>
       </c>
       <c r="D14">
-        <v>12.27877558848214</v>
+        <v>10.33570650078831</v>
       </c>
       <c r="E14">
-        <v>7.028950504647563</v>
+        <v>10.04109434990611</v>
       </c>
       <c r="F14">
-        <v>81.11861800431987</v>
+        <v>56.86610361032422</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.618846399486308</v>
+        <v>10.44739928346166</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.28546015736527</v>
+        <v>23.52963249567538</v>
       </c>
       <c r="C15">
-        <v>17.55567624629563</v>
+        <v>8.933534903139748</v>
       </c>
       <c r="D15">
-        <v>12.220074045696</v>
+        <v>10.32016752619046</v>
       </c>
       <c r="E15">
-        <v>7.018438744955252</v>
+        <v>10.04033203942845</v>
       </c>
       <c r="F15">
-        <v>80.6397677467354</v>
+        <v>56.71933521663816</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.581350959246119</v>
+        <v>10.44473617834687</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.02650076264933</v>
+        <v>23.27536439424669</v>
       </c>
       <c r="C16">
-        <v>16.89191992505418</v>
+        <v>8.655103335785927</v>
       </c>
       <c r="D16">
-        <v>11.88515321071555</v>
+        <v>10.23084447217589</v>
       </c>
       <c r="E16">
-        <v>6.959687145888576</v>
+        <v>10.03612575538853</v>
       </c>
       <c r="F16">
-        <v>77.89303898081808</v>
+        <v>55.87365129645926</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.36848955284322</v>
+        <v>10.43021392287692</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24876608177447</v>
+        <v>23.12066850303994</v>
       </c>
       <c r="C17">
-        <v>16.4828243564591</v>
+        <v>8.479859689487453</v>
       </c>
       <c r="D17">
-        <v>11.68075598824985</v>
+        <v>10.17581442349048</v>
       </c>
       <c r="E17">
-        <v>6.924874412146449</v>
+        <v>10.03368970264779</v>
       </c>
       <c r="F17">
-        <v>76.20388231868367</v>
+        <v>55.35095063802557</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.239566885304892</v>
+        <v>10.42196571995115</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.79911487798096</v>
+        <v>23.03220224888796</v>
       </c>
       <c r="C18">
-        <v>16.24660273086623</v>
+        <v>8.377430098039792</v>
       </c>
       <c r="D18">
-        <v>11.56349505426645</v>
+        <v>10.14408189171638</v>
       </c>
       <c r="E18">
-        <v>6.905267273537989</v>
+        <v>10.03234145325281</v>
       </c>
       <c r="F18">
-        <v>75.23017422558121</v>
+        <v>55.0489612424598</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.165978347907805</v>
+        <v>10.41746488674031</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.64644345618427</v>
+        <v>23.00234032116643</v>
       </c>
       <c r="C19">
-        <v>16.16644462653622</v>
+        <v>8.34246814371603</v>
       </c>
       <c r="D19">
-        <v>11.52383698936374</v>
+        <v>10.13332441950556</v>
       </c>
       <c r="E19">
-        <v>6.898696998000979</v>
+        <v>10.03189403105694</v>
       </c>
       <c r="F19">
-        <v>74.90007033452969</v>
+        <v>54.94649021206109</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.141155653884846</v>
+        <v>10.41598281440406</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.33179020607498</v>
+        <v>23.13708411956545</v>
       </c>
       <c r="C20">
-        <v>16.52646385918352</v>
+        <v>8.498683700539198</v>
       </c>
       <c r="D20">
-        <v>11.70248122043885</v>
+        <v>10.18168093219139</v>
       </c>
       <c r="E20">
-        <v>6.928536452215981</v>
+        <v>10.03394354587316</v>
       </c>
       <c r="F20">
-        <v>76.38390526551571</v>
+        <v>55.40673431633117</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.253231574468659</v>
+        <v>10.42281858354289</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60912523759166</v>
+        <v>23.59564816571286</v>
       </c>
       <c r="C21">
-        <v>17.72665375638091</v>
+        <v>9.004052890659551</v>
       </c>
       <c r="D21">
-        <v>12.30695449574187</v>
+        <v>10.34315281294248</v>
       </c>
       <c r="E21">
-        <v>7.034018958120621</v>
+        <v>10.04146277310705</v>
       </c>
       <c r="F21">
-        <v>81.34822061715376</v>
+        <v>56.93639846475115</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.642167101049568</v>
+        <v>10.44868936495747</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.08455790423585</v>
+        <v>23.8991134456424</v>
       </c>
       <c r="C22">
-        <v>18.5079599594027</v>
+        <v>9.319881258566401</v>
       </c>
       <c r="D22">
-        <v>12.70680859316675</v>
+        <v>10.44785956249913</v>
       </c>
       <c r="E22">
-        <v>7.10748490429669</v>
+        <v>10.04685129296865</v>
       </c>
       <c r="F22">
-        <v>84.58850682557998</v>
+        <v>57.92231747493432</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.017631741535183</v>
+        <v>10.46775259402398</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.29784560286284</v>
+        <v>23.73684111789489</v>
       </c>
       <c r="C23">
-        <v>18.09096105795743</v>
+        <v>9.152636257175583</v>
       </c>
       <c r="D23">
-        <v>12.49283975905387</v>
+        <v>10.39205609605437</v>
       </c>
       <c r="E23">
-        <v>7.067815064795468</v>
+        <v>10.04393179150411</v>
       </c>
       <c r="F23">
-        <v>82.85863004968489</v>
+        <v>57.39746157877453</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.817594570426515</v>
+        <v>10.4573816232531</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29426293058116</v>
+        <v>23.12966114520576</v>
       </c>
       <c r="C24">
-        <v>16.50673769131933</v>
+        <v>8.490178597992188</v>
       </c>
       <c r="D24">
-        <v>11.69265848588003</v>
+        <v>10.17902897840229</v>
       </c>
       <c r="E24">
-        <v>6.92687958403172</v>
+        <v>10.03382862057738</v>
       </c>
       <c r="F24">
-        <v>76.30252510540338</v>
+        <v>55.38151911022086</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.247052125894076</v>
+        <v>10.42243225260898</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.96332235859838</v>
+        <v>22.49471132685935</v>
       </c>
       <c r="C25">
-        <v>14.76099858419079</v>
+        <v>7.713085235959534</v>
       </c>
       <c r="D25">
-        <v>10.84058430898997</v>
+        <v>9.946223733471873</v>
       </c>
       <c r="E25">
-        <v>6.790494130169219</v>
+        <v>10.02495125711189</v>
       </c>
       <c r="F25">
-        <v>69.14481232489452</v>
+        <v>53.15679566544232</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.719434172406825</v>
+        <v>10.39403885515954</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.04848781383541</v>
+        <v>24.4024909973471</v>
       </c>
       <c r="C2">
-        <v>7.086576677024649</v>
+        <v>13.42355210277939</v>
       </c>
       <c r="D2">
-        <v>9.7727564605112</v>
+        <v>10.21530645666408</v>
       </c>
       <c r="E2">
-        <v>10.02013192933921</v>
+        <v>6.700241323299452</v>
       </c>
       <c r="F2">
-        <v>51.48609614823078</v>
+        <v>63.74875494426416</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.38116335073147</v>
+        <v>7.345814342746169</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.76138917492582</v>
+        <v>22.58884491847537</v>
       </c>
       <c r="C3">
-        <v>6.6278303474271</v>
+        <v>12.47700286369483</v>
       </c>
       <c r="D3">
-        <v>9.654196310774976</v>
+        <v>9.790613599165543</v>
       </c>
       <c r="E3">
-        <v>10.0179263290129</v>
+        <v>6.644159631353554</v>
       </c>
       <c r="F3">
-        <v>50.3393507490849</v>
+        <v>59.99881714449855</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37744982034068</v>
+        <v>7.101024867761778</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.59331492376993</v>
+        <v>21.43923032749476</v>
       </c>
       <c r="C4">
-        <v>6.329235690193406</v>
+        <v>11.87398742956752</v>
       </c>
       <c r="D4">
-        <v>9.581002176144137</v>
+        <v>9.528965691489658</v>
       </c>
       <c r="E4">
-        <v>10.01709169825472</v>
+        <v>6.611890743402171</v>
       </c>
       <c r="F4">
-        <v>49.63020320537576</v>
+        <v>57.64857092302811</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.37764010772768</v>
+        <v>6.954775072853997</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.52698135237781</v>
+        <v>21.01380453350939</v>
       </c>
       <c r="C5">
-        <v>6.203291610621427</v>
+        <v>11.62250765060716</v>
       </c>
       <c r="D5">
-        <v>9.55108964639291</v>
+        <v>9.422085960309733</v>
       </c>
       <c r="E5">
-        <v>10.0168817615722</v>
+        <v>6.599240728075382</v>
       </c>
       <c r="F5">
-        <v>49.34028504998999</v>
+        <v>56.67883112412263</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.37833839773075</v>
+        <v>6.896196291831981</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.51609971108215</v>
+        <v>20.94279183051145</v>
       </c>
       <c r="C6">
-        <v>6.182120904925941</v>
+        <v>11.58039574949897</v>
       </c>
       <c r="D6">
-        <v>9.54611796555937</v>
+        <v>9.404322644267046</v>
       </c>
       <c r="E6">
-        <v>10.01685475019237</v>
+        <v>6.59716917046406</v>
       </c>
       <c r="F6">
-        <v>49.29209781294151</v>
+        <v>56.51708761714494</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.37849181934008</v>
+        <v>6.886531078667635</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59241146710758</v>
+        <v>21.433517856888</v>
       </c>
       <c r="C7">
-        <v>6.327554441327651</v>
+        <v>11.87061946449833</v>
       </c>
       <c r="D7">
-        <v>9.58059909153673</v>
+        <v>9.527525338840693</v>
       </c>
       <c r="E7">
-        <v>10.01708834051207</v>
+        <v>6.61171817284323</v>
       </c>
       <c r="F7">
-        <v>49.62629660586732</v>
+        <v>57.63554102903456</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.37764701258595</v>
+        <v>6.953980924682061</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.9478516463581</v>
+        <v>23.78547351943025</v>
       </c>
       <c r="C8">
-        <v>6.931907290069591</v>
+        <v>13.10154653956822</v>
       </c>
       <c r="D8">
-        <v>9.731968318559584</v>
+        <v>10.06902815564253</v>
       </c>
       <c r="E8">
-        <v>10.01926330444802</v>
+        <v>6.680426430483001</v>
       </c>
       <c r="F8">
-        <v>51.09194122699876</v>
+        <v>62.46561711474475</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.37937001928296</v>
+        <v>7.260566589944937</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.70556283401938</v>
+        <v>28.10048253386795</v>
       </c>
       <c r="C9">
-        <v>7.983254905178049</v>
+        <v>15.35596670368994</v>
       </c>
       <c r="D9">
-        <v>10.02500069203513</v>
+        <v>11.12688965659663</v>
       </c>
       <c r="E9">
-        <v>10.0276734980628</v>
+        <v>6.834665687690214</v>
       </c>
       <c r="F9">
-        <v>53.91201034155094</v>
+        <v>71.57276510281615</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.4023569889279</v>
+        <v>7.894685073570056</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.29308280119709</v>
+        <v>31.11495471223713</v>
       </c>
       <c r="C10">
-        <v>8.674878739815446</v>
+        <v>16.93849129977509</v>
       </c>
       <c r="D10">
-        <v>10.23711248379187</v>
+        <v>11.90852353491602</v>
       </c>
       <c r="E10">
-        <v>10.03641090551793</v>
+        <v>6.963718410337042</v>
       </c>
       <c r="F10">
-        <v>55.93310628958029</v>
+        <v>78.08553589148559</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.4311880355025</v>
+        <v>8.383280139891413</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.56570214304285</v>
+        <v>32.46244631515254</v>
       </c>
       <c r="C11">
-        <v>8.972149898703801</v>
+        <v>17.64915228189273</v>
       </c>
       <c r="D11">
-        <v>10.33273607416815</v>
+        <v>12.26754359215141</v>
       </c>
       <c r="E11">
-        <v>10.04094794405023</v>
+        <v>7.026934288167021</v>
       </c>
       <c r="F11">
-        <v>56.83805544552235</v>
+        <v>81.02705193673901</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.44688716086001</v>
+        <v>8.611667934897776</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.66959241502695</v>
+        <v>32.97037140209685</v>
       </c>
       <c r="C12">
-        <v>9.082238192239862</v>
+        <v>17.91765494062284</v>
       </c>
       <c r="D12">
-        <v>10.36880640503173</v>
+        <v>12.40428466501375</v>
       </c>
       <c r="E12">
-        <v>10.04274735343877</v>
+        <v>7.051636700831551</v>
       </c>
       <c r="F12">
-        <v>57.17839089387275</v>
+        <v>82.13997509466735</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.45320200225986</v>
+        <v>8.73421782291169</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.6471904552624</v>
+        <v>32.86106467757058</v>
       </c>
       <c r="C13">
-        <v>9.058638872222669</v>
+        <v>17.85984193493174</v>
       </c>
       <c r="D13">
-        <v>10.36104449596189</v>
+        <v>12.37479439528947</v>
       </c>
       <c r="E13">
-        <v>10.04235619390333</v>
+        <v>7.046280493752459</v>
       </c>
       <c r="F13">
-        <v>57.10520215084104</v>
+        <v>81.90029026368305</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.45182556552832</v>
+        <v>8.706373265234831</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.57423677825718</v>
+        <v>32.50427339354421</v>
       </c>
       <c r="C14">
-        <v>8.981256590749267</v>
+        <v>17.67124965546121</v>
       </c>
       <c r="D14">
-        <v>10.33570650078831</v>
+        <v>12.27877558848211</v>
       </c>
       <c r="E14">
-        <v>10.04109434990611</v>
+        <v>7.028950504647572</v>
       </c>
       <c r="F14">
-        <v>56.86610361032422</v>
+        <v>81.11861800431976</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.44739928346166</v>
+        <v>8.6188463994863</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.52963249567538</v>
+        <v>32.28546015736532</v>
       </c>
       <c r="C15">
-        <v>8.933534903139748</v>
+        <v>17.55567624629575</v>
       </c>
       <c r="D15">
-        <v>10.32016752619046</v>
+        <v>12.22007404569605</v>
       </c>
       <c r="E15">
-        <v>10.04033203942845</v>
+        <v>7.018438744955254</v>
       </c>
       <c r="F15">
-        <v>56.71933521663816</v>
+        <v>80.63976774673577</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.44473617834687</v>
+        <v>8.581350959246112</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.27536439424669</v>
+        <v>31.02650076264946</v>
       </c>
       <c r="C16">
-        <v>8.655103335785927</v>
+        <v>16.89191992505435</v>
       </c>
       <c r="D16">
-        <v>10.23084447217589</v>
+        <v>11.88515321071565</v>
       </c>
       <c r="E16">
-        <v>10.03612575538853</v>
+        <v>6.959687145888635</v>
       </c>
       <c r="F16">
-        <v>55.87365129645926</v>
+        <v>77.89303898081866</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.43021392287692</v>
+        <v>8.368489552843199</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.12066850303994</v>
+        <v>30.24876608177431</v>
       </c>
       <c r="C17">
-        <v>8.479859689487453</v>
+        <v>16.48282435645888</v>
       </c>
       <c r="D17">
-        <v>10.17581442349048</v>
+        <v>11.68075598824971</v>
       </c>
       <c r="E17">
-        <v>10.03368970264779</v>
+        <v>6.92487441214639</v>
       </c>
       <c r="F17">
-        <v>55.35095063802557</v>
+        <v>76.20388231868279</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.42196571995115</v>
+        <v>8.239566885304871</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.03220224888796</v>
+        <v>29.79911487798097</v>
       </c>
       <c r="C18">
-        <v>8.377430098039792</v>
+        <v>16.24660273086599</v>
       </c>
       <c r="D18">
-        <v>10.14408189171638</v>
+        <v>11.56349505426632</v>
       </c>
       <c r="E18">
-        <v>10.03234145325281</v>
+        <v>6.905267273537875</v>
       </c>
       <c r="F18">
-        <v>55.0489612424598</v>
+        <v>75.23017422558071</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.41746488674031</v>
+        <v>8.165978347907812</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.00234032116643</v>
+        <v>29.64644345618435</v>
       </c>
       <c r="C19">
-        <v>8.34246814371603</v>
+        <v>16.16644462653609</v>
       </c>
       <c r="D19">
-        <v>10.13332441950556</v>
+        <v>11.52383698936379</v>
       </c>
       <c r="E19">
-        <v>10.03189403105694</v>
+        <v>6.898696998000975</v>
       </c>
       <c r="F19">
-        <v>54.94649021206109</v>
+        <v>74.90007033452977</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.41598281440406</v>
+        <v>8.141155653884836</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.13708411956545</v>
+        <v>30.33179020607496</v>
       </c>
       <c r="C20">
-        <v>8.498683700539198</v>
+        <v>16.52646385918339</v>
       </c>
       <c r="D20">
-        <v>10.18168093219139</v>
+        <v>11.70248122043876</v>
       </c>
       <c r="E20">
-        <v>10.03394354587316</v>
+        <v>6.928536452215958</v>
       </c>
       <c r="F20">
-        <v>55.40673431633117</v>
+        <v>76.38390526551512</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.42281858354289</v>
+        <v>8.253231574468668</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59564816571286</v>
+        <v>32.60912523759161</v>
       </c>
       <c r="C21">
-        <v>9.004052890659551</v>
+        <v>17.72665375638081</v>
       </c>
       <c r="D21">
-        <v>10.34315281294248</v>
+        <v>12.30695449574184</v>
       </c>
       <c r="E21">
-        <v>10.04146277310705</v>
+        <v>7.034018958120643</v>
       </c>
       <c r="F21">
-        <v>56.93639846475115</v>
+        <v>81.3482206171537</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.44868936495747</v>
+        <v>8.642167101049504</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.8991134456424</v>
+        <v>34.08455790423603</v>
       </c>
       <c r="C22">
-        <v>9.319881258566401</v>
+        <v>18.50795995940316</v>
       </c>
       <c r="D22">
-        <v>10.44785956249913</v>
+        <v>12.70680859316678</v>
       </c>
       <c r="E22">
-        <v>10.04685129296865</v>
+        <v>7.107484904296765</v>
       </c>
       <c r="F22">
-        <v>57.92231747493432</v>
+        <v>84.5885068255802</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.46775259402398</v>
+        <v>9.017631741535203</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.73684111789489</v>
+        <v>33.29784560286284</v>
       </c>
       <c r="C23">
-        <v>9.152636257175583</v>
+        <v>18.09096105795758</v>
       </c>
       <c r="D23">
-        <v>10.39205609605437</v>
+        <v>12.49283975905395</v>
       </c>
       <c r="E23">
-        <v>10.04393179150411</v>
+        <v>7.067815064795557</v>
       </c>
       <c r="F23">
-        <v>57.39746157877453</v>
+        <v>82.85863004968532</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.4573816232531</v>
+        <v>8.817594570426554</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.12966114520576</v>
+        <v>30.29426293058111</v>
       </c>
       <c r="C24">
-        <v>8.490178597992188</v>
+        <v>16.50673769131964</v>
       </c>
       <c r="D24">
-        <v>10.17902897840229</v>
+        <v>11.69265848587997</v>
       </c>
       <c r="E24">
-        <v>10.03382862057738</v>
+        <v>6.926879584031828</v>
       </c>
       <c r="F24">
-        <v>55.38151911022086</v>
+        <v>76.30252510540316</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.42243225260898</v>
+        <v>8.247052125894117</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.49471132685935</v>
+        <v>26.96332235859832</v>
       </c>
       <c r="C25">
-        <v>7.713085235959534</v>
+        <v>14.76099858419059</v>
       </c>
       <c r="D25">
-        <v>9.946223733471873</v>
+        <v>10.84058430899009</v>
       </c>
       <c r="E25">
-        <v>10.02495125711189</v>
+        <v>6.790494130169283</v>
       </c>
       <c r="F25">
-        <v>53.15679566544232</v>
+        <v>69.14481232489452</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.39403885515954</v>
+        <v>7.719434172406841</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.4024909973471</v>
+        <v>16.1068237076478</v>
       </c>
       <c r="C2">
-        <v>13.42355210277939</v>
+        <v>7.955096661519878</v>
       </c>
       <c r="D2">
-        <v>10.21530645666408</v>
+        <v>5.475846698691443</v>
       </c>
       <c r="E2">
-        <v>6.700241323299452</v>
+        <v>6.603854093878489</v>
       </c>
       <c r="F2">
-        <v>63.74875494426416</v>
+        <v>30.9296257420786</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.889268979642394</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.799222589775596</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.89642492825715</v>
       </c>
       <c r="L2">
-        <v>7.345814342746169</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.20908719254848</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.38703083607611</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>15.21849280755438</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58884491847537</v>
+        <v>15.13912268700765</v>
       </c>
       <c r="C3">
-        <v>12.47700286369483</v>
+        <v>7.398305936269331</v>
       </c>
       <c r="D3">
-        <v>9.790613599165543</v>
+        <v>5.450273266408629</v>
       </c>
       <c r="E3">
-        <v>6.644159631353554</v>
+        <v>6.307761574784713</v>
       </c>
       <c r="F3">
-        <v>59.99881714449855</v>
+        <v>29.98667937598871</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.138027206755159</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.01361020973151</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.48207858271816</v>
       </c>
       <c r="L3">
-        <v>7.101024867761778</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.45871332757079</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.066687610231854</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>15.28631774375984</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43923032749476</v>
+        <v>14.51268979273069</v>
       </c>
       <c r="C4">
-        <v>11.87398742956752</v>
+        <v>7.041286867639203</v>
       </c>
       <c r="D4">
-        <v>9.528965691489658</v>
+        <v>5.433214257758179</v>
       </c>
       <c r="E4">
-        <v>6.611890743402171</v>
+        <v>6.118185777075773</v>
       </c>
       <c r="F4">
-        <v>57.64857092302811</v>
+        <v>29.39900332333412</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.296078981893693</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.150372752948152</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.22485912136316</v>
       </c>
       <c r="L4">
-        <v>6.954775072853997</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.97733007133853</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.862634877913999</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>15.32831597386878</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01380453350939</v>
+        <v>14.24262587630188</v>
       </c>
       <c r="C5">
-        <v>11.62250765060716</v>
+        <v>6.897383396950161</v>
       </c>
       <c r="D5">
-        <v>9.422085960309733</v>
+        <v>5.425826860041894</v>
       </c>
       <c r="E5">
-        <v>6.599240728075382</v>
+        <v>6.037285849145105</v>
       </c>
       <c r="F5">
-        <v>56.67883112412263</v>
+        <v>29.14314785218009</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.362337007992638</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.210007103192505</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.10836342673491</v>
       </c>
       <c r="L5">
-        <v>6.896196291831981</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.7737349293465</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.777870833682906</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>15.34210549911708</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94279183051145</v>
+        <v>14.18899195000508</v>
       </c>
       <c r="C6">
-        <v>11.58039574949897</v>
+        <v>6.879897312744397</v>
       </c>
       <c r="D6">
-        <v>9.404322644267046</v>
+        <v>5.424471125962789</v>
       </c>
       <c r="E6">
-        <v>6.59716917046406</v>
+        <v>6.021648198829682</v>
       </c>
       <c r="F6">
-        <v>56.51708761714494</v>
+        <v>29.08286247600888</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.374020068781579</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.223293105794512</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.07547287829334</v>
       </c>
       <c r="L6">
-        <v>6.886531078667635</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.73670240966576</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.76390447194538</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>15.34023376062964</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.433517856888</v>
+        <v>14.48685972638062</v>
       </c>
       <c r="C7">
-        <v>11.87061946449833</v>
+        <v>7.057021317538012</v>
       </c>
       <c r="D7">
-        <v>9.527525338840693</v>
+        <v>5.432853788680714</v>
       </c>
       <c r="E7">
-        <v>6.61171817284323</v>
+        <v>6.11149076264798</v>
       </c>
       <c r="F7">
-        <v>57.63554102903456</v>
+        <v>29.34774403313055</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.298578889169911</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.159950969924403</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.18662659437779</v>
       </c>
       <c r="L7">
-        <v>6.953980924682061</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.96676082141479</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.862082231889952</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>15.31717272837814</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78547351943025</v>
+        <v>15.75255226554391</v>
       </c>
       <c r="C8">
-        <v>13.10154653956822</v>
+        <v>7.787611976801884</v>
       </c>
       <c r="D8">
-        <v>10.06902815564253</v>
+        <v>5.467128908828696</v>
       </c>
       <c r="E8">
-        <v>6.680426430483001</v>
+        <v>6.496351317034501</v>
       </c>
       <c r="F8">
-        <v>62.46561711474475</v>
+        <v>30.54558268028043</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.975993336245765</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.883348202621662</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.70683123332958</v>
       </c>
       <c r="L8">
-        <v>7.260566589944937</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.94499619905975</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.27889964885183</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>15.22704583924085</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10048253386795</v>
+        <v>18.01074740257863</v>
       </c>
       <c r="C9">
-        <v>15.35596670368994</v>
+        <v>9.074226069329631</v>
       </c>
       <c r="D9">
-        <v>11.12688965659663</v>
+        <v>5.523743354954128</v>
       </c>
       <c r="E9">
-        <v>6.834665687690214</v>
+        <v>7.198292982475293</v>
       </c>
       <c r="F9">
-        <v>71.57276510281615</v>
+        <v>32.89550397737511</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.381690342239731</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.366209910162338</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.76490981072165</v>
       </c>
       <c r="L9">
-        <v>7.894685073570056</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.74410929829946</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.034494210457215</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>15.07305214451078</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.11495471223713</v>
+        <v>19.42375194974937</v>
       </c>
       <c r="C10">
-        <v>16.93849129977509</v>
+        <v>9.987381125659999</v>
       </c>
       <c r="D10">
-        <v>11.90852353491602</v>
+        <v>5.560842286672804</v>
       </c>
       <c r="E10">
-        <v>6.963718410337042</v>
+        <v>7.529610817877335</v>
       </c>
       <c r="F10">
-        <v>78.08553589148559</v>
+        <v>34.33493292141049</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.003459942025656</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.023965225150839</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.35073811190462</v>
       </c>
       <c r="L10">
-        <v>8.383280139891413</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.03921874390318</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.411742308445442</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>14.90566122237909</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.46244631515254</v>
+        <v>19.35531712330911</v>
       </c>
       <c r="C11">
-        <v>17.64915228189273</v>
+        <v>10.6690106196464</v>
       </c>
       <c r="D11">
-        <v>12.26754359215141</v>
+        <v>5.620880767258829</v>
       </c>
       <c r="E11">
-        <v>7.026934288167021</v>
+        <v>6.576658308893744</v>
       </c>
       <c r="F11">
-        <v>81.02705193673901</v>
+        <v>33.15070775727864</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.927507103364612</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.963538742703966</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.22723108778172</v>
       </c>
       <c r="L11">
-        <v>8.611667934897776</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.26580715288165</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.410875842104458</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>14.39477099633527</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.97037140209685</v>
+        <v>19.02841973368642</v>
       </c>
       <c r="C12">
-        <v>17.91765494062284</v>
+        <v>11.04024271603897</v>
       </c>
       <c r="D12">
-        <v>12.40428466501375</v>
+        <v>5.694669392076928</v>
       </c>
       <c r="E12">
-        <v>7.051636700831551</v>
+        <v>5.966078988496839</v>
       </c>
       <c r="F12">
-        <v>82.13997509466735</v>
+        <v>31.89319838103211</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.271015688945186</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.961234363353092</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.20554525800533</v>
       </c>
       <c r="L12">
-        <v>8.73421782291169</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.20207937386906</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.523744490072166</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>14.04288913956126</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.86106467757058</v>
+        <v>18.44592068013802</v>
       </c>
       <c r="C13">
-        <v>17.85984193493174</v>
+        <v>11.22716941634405</v>
       </c>
       <c r="D13">
-        <v>12.37479439528947</v>
+        <v>5.78007752098417</v>
       </c>
       <c r="E13">
-        <v>7.046280493752459</v>
+        <v>5.637769184839798</v>
       </c>
       <c r="F13">
-        <v>81.90029026368305</v>
+        <v>30.41177537113816</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.682188383180993</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.018848678344978</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.1403124541977</v>
       </c>
       <c r="L13">
-        <v>8.706373265234831</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.89953992968561</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.675800643931092</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.77780921394431</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.50427339354421</v>
+        <v>17.90894111483155</v>
       </c>
       <c r="C14">
-        <v>17.67124965546121</v>
+        <v>11.28252872665288</v>
       </c>
       <c r="D14">
-        <v>12.27877558848211</v>
+        <v>5.847892434950673</v>
       </c>
       <c r="E14">
-        <v>7.028950504647572</v>
+        <v>5.60913362612376</v>
       </c>
       <c r="F14">
-        <v>81.11861800431976</v>
+        <v>29.2506732285715</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.688525748055925</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.088891404552205</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.3678112485914</v>
       </c>
       <c r="L14">
-        <v>8.6188463994863</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.5737639199086</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.12389427892112</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.63539947674423</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.28546015736532</v>
+        <v>17.71506110633917</v>
       </c>
       <c r="C15">
-        <v>17.55567624629575</v>
+        <v>11.26238936987032</v>
       </c>
       <c r="D15">
-        <v>12.22007404569605</v>
+        <v>5.863852260019738</v>
       </c>
       <c r="E15">
-        <v>7.018438744955254</v>
+        <v>5.621396155876287</v>
       </c>
       <c r="F15">
-        <v>80.63976774673577</v>
+        <v>28.90494393819172</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.924947550177714</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.123837753757769</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.15952184040739</v>
       </c>
       <c r="L15">
-        <v>8.581350959246112</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.43945511410672</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.994290730224585</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.61336432082379</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.02650076264946</v>
+        <v>17.19528315658144</v>
       </c>
       <c r="C16">
-        <v>16.89191992505435</v>
+        <v>10.87901737078696</v>
       </c>
       <c r="D16">
-        <v>11.88515321071565</v>
+        <v>5.826203717027544</v>
       </c>
       <c r="E16">
-        <v>6.959687145888635</v>
+        <v>5.509144843787408</v>
       </c>
       <c r="F16">
-        <v>77.89303898081866</v>
+        <v>28.49996228101961</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.747598969673792</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.263309253312007</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.08573347505652</v>
       </c>
       <c r="L16">
-        <v>8.368489552843199</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.94249352917858</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.967735751533375</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.73456723163523</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.24876608177431</v>
+        <v>17.08888074586884</v>
       </c>
       <c r="C17">
-        <v>16.48282435645888</v>
+        <v>10.54679193720439</v>
       </c>
       <c r="D17">
-        <v>11.68075598824971</v>
+        <v>5.759558662600814</v>
       </c>
       <c r="E17">
-        <v>6.92487441214639</v>
+        <v>5.397662861897695</v>
       </c>
       <c r="F17">
-        <v>76.20388231868279</v>
+        <v>28.82322596986519</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.051603330579296</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.334152955411129</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.44102394888959</v>
       </c>
       <c r="L17">
-        <v>8.239566885304871</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.73522726935993</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.233057877863401</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.89940888730261</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.79911487798097</v>
+        <v>17.34767178493554</v>
       </c>
       <c r="C18">
-        <v>16.24660273086599</v>
+        <v>10.21287160941467</v>
       </c>
       <c r="D18">
-        <v>11.56349505426632</v>
+        <v>5.671759328454258</v>
       </c>
       <c r="E18">
-        <v>6.905267273537875</v>
+        <v>5.482700423883938</v>
       </c>
       <c r="F18">
-        <v>75.23017422558071</v>
+        <v>29.84196279944186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.86470205396718</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.340911939646436</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.23985229691639</v>
       </c>
       <c r="L18">
-        <v>8.165978347907812</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.76740295676761</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.842448054928701</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>14.14422433557058</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.64644345618435</v>
+        <v>17.84093870085253</v>
       </c>
       <c r="C19">
-        <v>16.16644462653609</v>
+        <v>9.93510595550525</v>
       </c>
       <c r="D19">
-        <v>11.52383698936379</v>
+        <v>5.598149627859241</v>
       </c>
       <c r="E19">
-        <v>6.898696998000975</v>
+        <v>5.996615000061011</v>
       </c>
       <c r="F19">
-        <v>74.90007033452977</v>
+        <v>31.25673792577028</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.490666007236286</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.310412510057334</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.29008362367081</v>
       </c>
       <c r="L19">
-        <v>8.141155653884836</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.97798732733863</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.742601576454109</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>14.44630732238389</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.33179020607496</v>
+        <v>19.00487195768481</v>
       </c>
       <c r="C20">
-        <v>16.52646385918339</v>
+        <v>9.795136262708096</v>
       </c>
       <c r="D20">
-        <v>11.70248122043876</v>
+        <v>5.552240139313199</v>
       </c>
       <c r="E20">
-        <v>6.928536452215958</v>
+        <v>7.422994210941765</v>
       </c>
       <c r="F20">
-        <v>76.38390526551512</v>
+        <v>33.82215266465703</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.105272091965706</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.143429121007673</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.08699329865037</v>
       </c>
       <c r="L20">
-        <v>8.253231574468668</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.6875529003286</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.30987477566832</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>14.91385927716151</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.60912523759161</v>
+        <v>20.17042350975549</v>
       </c>
       <c r="C21">
-        <v>17.72665375638081</v>
+        <v>10.41558252438877</v>
       </c>
       <c r="D21">
-        <v>12.30695449574184</v>
+        <v>5.575506798716307</v>
       </c>
       <c r="E21">
-        <v>7.034018958120643</v>
+        <v>7.893577196166923</v>
       </c>
       <c r="F21">
-        <v>81.3482206171537</v>
+        <v>35.25382890911612</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.76943734544881</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.86922493763538</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.7949392997717</v>
       </c>
       <c r="L21">
-        <v>8.642167101049504</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.69795387724727</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.801728080061178</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>14.8721035050598</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.08455790423603</v>
+        <v>20.88408911120505</v>
       </c>
       <c r="C22">
-        <v>18.50795995940316</v>
+        <v>10.81007205316075</v>
       </c>
       <c r="D22">
-        <v>12.70680859316678</v>
+        <v>5.590264450851193</v>
       </c>
       <c r="E22">
-        <v>7.107484904296765</v>
+        <v>8.125592773270254</v>
       </c>
       <c r="F22">
-        <v>84.5885068255802</v>
+        <v>36.12063383732629</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.568228396197142</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.685322032507352</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.21502128136686</v>
       </c>
       <c r="L22">
-        <v>9.017631741535203</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.31942793736636</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.043374149528455</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>14.83328270704938</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.29784560286284</v>
+        <v>20.5254029506462</v>
       </c>
       <c r="C23">
-        <v>18.09096105795758</v>
+        <v>10.58609962640887</v>
       </c>
       <c r="D23">
-        <v>12.49283975905395</v>
+        <v>5.582221976363433</v>
       </c>
       <c r="E23">
-        <v>7.067815064795557</v>
+        <v>8.007628349204191</v>
       </c>
       <c r="F23">
-        <v>82.85863004968532</v>
+        <v>35.70625210851486</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.673684015459842</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.77058880699793</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.02958189566645</v>
       </c>
       <c r="L23">
-        <v>8.817594570426554</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.99718856833581</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.914501867336133</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>14.86659168890558</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29426293058111</v>
+        <v>19.0780560758773</v>
       </c>
       <c r="C24">
-        <v>16.50673769131964</v>
+        <v>9.736202657038531</v>
       </c>
       <c r="D24">
-        <v>11.69265848587997</v>
+        <v>5.549803614312276</v>
       </c>
       <c r="E24">
-        <v>6.926879584031828</v>
+        <v>7.539396925861372</v>
       </c>
       <c r="F24">
-        <v>76.30252510540316</v>
+        <v>34.03708427051568</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.082891737003849</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.122074634158073</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.25952427627616</v>
       </c>
       <c r="L24">
-        <v>8.247052125894117</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.71233532519487</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.411996283620415</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>14.97416849278662</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.96332235859832</v>
+        <v>17.39399973627657</v>
       </c>
       <c r="C25">
-        <v>14.76099858419059</v>
+        <v>8.764591999429554</v>
       </c>
       <c r="D25">
-        <v>10.84058430899009</v>
+        <v>5.509639209621817</v>
       </c>
       <c r="E25">
-        <v>6.790494130169283</v>
+        <v>7.006137491292643</v>
       </c>
       <c r="F25">
-        <v>69.14481232489452</v>
+        <v>32.1911662268943</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.540883779311391</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.518271565406275</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.41944332476163</v>
       </c>
       <c r="L25">
-        <v>7.719434172406841</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.23684444312702</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.837883397048855</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>15.09461091539039</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.1068237076478</v>
+        <v>15.13566693313869</v>
       </c>
       <c r="C2">
-        <v>7.955096661519878</v>
+        <v>8.495410273670927</v>
       </c>
       <c r="D2">
-        <v>5.475846698691443</v>
+        <v>5.335156664071937</v>
       </c>
       <c r="E2">
-        <v>6.603854093878489</v>
+        <v>6.458403358663126</v>
       </c>
       <c r="F2">
-        <v>30.9296257420786</v>
+        <v>28.61169548092125</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.889268979642394</v>
+        <v>2.701191217987167</v>
       </c>
       <c r="I2">
-        <v>3.799222589775596</v>
+        <v>3.575397041604395</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>22.89642492825715</v>
+        <v>20.90087845934451</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.55818112220069</v>
       </c>
       <c r="M2">
-        <v>13.20908719254848</v>
+        <v>14.49955122283829</v>
       </c>
       <c r="N2">
-        <v>7.38703083607611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.86020620644813</v>
       </c>
       <c r="P2">
-        <v>15.21849280755438</v>
+        <v>7.549882562033219</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.52131375118353</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.13912268700765</v>
+        <v>14.24042539002168</v>
       </c>
       <c r="C3">
-        <v>7.398305936269331</v>
+        <v>7.862751115032893</v>
       </c>
       <c r="D3">
-        <v>5.450273266408629</v>
+        <v>5.291851890002458</v>
       </c>
       <c r="E3">
-        <v>6.307761574784713</v>
+        <v>6.192661503371621</v>
       </c>
       <c r="F3">
-        <v>29.98667937598871</v>
+        <v>27.87174135072599</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.138027206755159</v>
+        <v>2.92915251312245</v>
       </c>
       <c r="I3">
-        <v>4.01361020973151</v>
+        <v>3.764381559794316</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>22.48207858271816</v>
+        <v>20.64884351523027</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.48852980728588</v>
       </c>
       <c r="M3">
-        <v>12.45871332757079</v>
+        <v>14.20513577957254</v>
       </c>
       <c r="N3">
-        <v>7.066687610231854</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.13257111098759</v>
       </c>
       <c r="P3">
-        <v>15.28631774375984</v>
+        <v>7.237255762258399</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.63712266941652</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.51268979273069</v>
+        <v>13.65938198586538</v>
       </c>
       <c r="C4">
-        <v>7.041286867639203</v>
+        <v>7.456090751751391</v>
       </c>
       <c r="D4">
-        <v>5.433214257758179</v>
+        <v>5.264241063662704</v>
       </c>
       <c r="E4">
-        <v>6.118185777075773</v>
+        <v>6.022573744658221</v>
       </c>
       <c r="F4">
-        <v>29.39900332333412</v>
+        <v>27.41182208145038</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.296078981893693</v>
+        <v>3.074124961528364</v>
       </c>
       <c r="I4">
-        <v>4.150372752948152</v>
+        <v>3.885321636756802</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>22.22485912136316</v>
+        <v>20.49229034674103</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.43936848785074</v>
       </c>
       <c r="M4">
-        <v>11.97733007133853</v>
+        <v>14.03887340360856</v>
       </c>
       <c r="N4">
-        <v>6.862634877913999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.66494327349755</v>
       </c>
       <c r="P4">
-        <v>15.32831597386878</v>
+        <v>7.038524567600067</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.7086078355744</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.24262587630188</v>
+        <v>13.40835055059451</v>
       </c>
       <c r="C5">
-        <v>6.897383396950161</v>
+        <v>7.291186449018447</v>
       </c>
       <c r="D5">
-        <v>5.425826860041894</v>
+        <v>5.253034430734523</v>
       </c>
       <c r="E5">
-        <v>6.037285849145105</v>
+        <v>5.949977558504949</v>
       </c>
       <c r="F5">
-        <v>29.14314785218009</v>
+        <v>27.20977872551597</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.362337007992638</v>
+        <v>3.13493936109621</v>
       </c>
       <c r="I5">
-        <v>4.210007103192505</v>
+        <v>3.93884013581777</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>22.10836342673491</v>
+        <v>20.41814394877745</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.40921641710912</v>
       </c>
       <c r="M5">
-        <v>11.7737349293465</v>
+        <v>13.96844025025307</v>
       </c>
       <c r="N5">
-        <v>6.777870833682906</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.46701317531707</v>
       </c>
       <c r="P5">
-        <v>15.34210549911708</v>
+        <v>6.956065123598807</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.73510971768941</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.18899195000508</v>
+        <v>13.35831443851733</v>
       </c>
       <c r="C6">
-        <v>6.879897312744397</v>
+        <v>7.270163275982503</v>
       </c>
       <c r="D6">
-        <v>5.424471125962789</v>
+        <v>5.251536088430134</v>
       </c>
       <c r="E6">
-        <v>6.021648198829682</v>
+        <v>5.935916009161847</v>
       </c>
       <c r="F6">
-        <v>29.08286247600888</v>
+        <v>27.15977747846379</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.374020068781579</v>
+        <v>3.145674370987732</v>
       </c>
       <c r="I6">
-        <v>4.223293105794512</v>
+        <v>3.951626686409598</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>22.07547287829334</v>
+        <v>20.39368343364829</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.39373666826735</v>
       </c>
       <c r="M6">
-        <v>11.73670240966576</v>
+        <v>13.94900936269276</v>
       </c>
       <c r="N6">
-        <v>6.76390447194538</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.43107385890561</v>
       </c>
       <c r="P6">
-        <v>15.34023376062964</v>
+        <v>6.942469267033234</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.73618509151215</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.48685972638062</v>
+        <v>13.63496871910889</v>
       </c>
       <c r="C7">
-        <v>7.057021317538012</v>
+        <v>7.471525916961045</v>
       </c>
       <c r="D7">
-        <v>5.432853788680714</v>
+        <v>5.265178875390705</v>
       </c>
       <c r="E7">
-        <v>6.11149076264798</v>
+        <v>6.016487517659995</v>
       </c>
       <c r="F7">
-        <v>29.34774403313055</v>
+        <v>27.3648328498128</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.298578889169911</v>
+        <v>3.076444146821053</v>
       </c>
       <c r="I7">
-        <v>4.159950969924403</v>
+        <v>3.896180257997272</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>22.18662659437779</v>
+        <v>20.45841730772726</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.41119064600392</v>
       </c>
       <c r="M7">
-        <v>11.96676082141479</v>
+        <v>14.01587366870625</v>
       </c>
       <c r="N7">
-        <v>6.862082231889952</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.65487662173451</v>
       </c>
       <c r="P7">
-        <v>15.31717272837814</v>
+        <v>7.037946082208284</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.69995135327574</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.75255226554391</v>
+        <v>14.80766657385549</v>
       </c>
       <c r="C8">
-        <v>7.787611976801884</v>
+        <v>8.302336829860883</v>
       </c>
       <c r="D8">
-        <v>5.467128908828696</v>
+        <v>5.322122663688051</v>
       </c>
       <c r="E8">
-        <v>6.496351317034501</v>
+        <v>6.361816243885142</v>
       </c>
       <c r="F8">
-        <v>30.54558268028043</v>
+        <v>28.30144489644066</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.975993336245765</v>
+        <v>2.780659888508243</v>
       </c>
       <c r="I8">
-        <v>3.883348202621662</v>
+        <v>3.652558976168434</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>22.70683123332958</v>
+        <v>20.77195802258435</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.50104550599038</v>
       </c>
       <c r="M8">
-        <v>12.94499619905975</v>
+        <v>14.36514206812348</v>
       </c>
       <c r="N8">
-        <v>7.27889964885183</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.60453495749029</v>
       </c>
       <c r="P8">
-        <v>15.22704583924085</v>
+        <v>7.44423307440604</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.54961507098733</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.01074740257863</v>
+        <v>16.88993048999096</v>
       </c>
       <c r="C9">
-        <v>9.074226069329631</v>
+        <v>9.761372763541477</v>
       </c>
       <c r="D9">
-        <v>5.523743354954128</v>
+        <v>5.423340109385821</v>
       </c>
       <c r="E9">
-        <v>7.198292982475293</v>
+        <v>6.992232230666899</v>
       </c>
       <c r="F9">
-        <v>32.89550397737511</v>
+        <v>30.16185662351453</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.381690342239731</v>
+        <v>2.236842607918809</v>
       </c>
       <c r="I9">
-        <v>3.366209910162338</v>
+        <v>3.196320406986969</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>23.76490981072165</v>
+        <v>21.42853872324049</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.67262080424738</v>
       </c>
       <c r="M9">
-        <v>14.74410929829946</v>
+        <v>15.1975994852518</v>
       </c>
       <c r="N9">
-        <v>8.034494210457215</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.44383204208029</v>
       </c>
       <c r="P9">
-        <v>15.07305214451078</v>
+        <v>8.183570157636936</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.27294055443571</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.42375194974937</v>
+        <v>18.19240422876505</v>
       </c>
       <c r="C10">
-        <v>9.987381125659999</v>
+        <v>10.77899168337562</v>
       </c>
       <c r="D10">
-        <v>5.560842286672804</v>
+        <v>5.502538413527886</v>
       </c>
       <c r="E10">
-        <v>7.529610817877335</v>
+        <v>7.283819283854038</v>
       </c>
       <c r="F10">
-        <v>34.33493292141049</v>
+        <v>31.29569450813426</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.003459942025656</v>
+        <v>1.894017915910647</v>
       </c>
       <c r="I10">
-        <v>3.023965225150839</v>
+        <v>2.897771657785326</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>24.35073811190462</v>
+        <v>21.7595891698768</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.6632554291518</v>
       </c>
       <c r="M10">
-        <v>16.03921874390318</v>
+        <v>15.75334993554108</v>
       </c>
       <c r="N10">
-        <v>8.411742308445442</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.68695448044696</v>
       </c>
       <c r="P10">
-        <v>14.90566122237909</v>
+        <v>8.550968985404344</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>14.0321830991465</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.35531712330911</v>
+        <v>18.17835858345637</v>
       </c>
       <c r="C11">
-        <v>10.6690106196464</v>
+        <v>11.44011752929598</v>
       </c>
       <c r="D11">
-        <v>5.620880767258829</v>
+        <v>5.638079549618009</v>
       </c>
       <c r="E11">
-        <v>6.576658308893744</v>
+        <v>6.397264777715146</v>
       </c>
       <c r="F11">
-        <v>33.15070775727864</v>
+        <v>30.24361790590761</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.927507103364612</v>
+        <v>2.85739973661207</v>
       </c>
       <c r="I11">
-        <v>2.963538742703966</v>
+        <v>2.848324764374974</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>23.22723108778172</v>
+        <v>20.77807261561602</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.81972958908548</v>
       </c>
       <c r="M11">
-        <v>16.26580715288165</v>
+        <v>15.13562289714753</v>
       </c>
       <c r="N11">
-        <v>7.410875842104458</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.92975309347742</v>
       </c>
       <c r="P11">
-        <v>14.39477099633527</v>
+        <v>7.544580475328157</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.63175552097901</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.02841973368642</v>
+        <v>17.92001699636791</v>
       </c>
       <c r="C12">
-        <v>11.04024271603897</v>
+        <v>11.77109843228826</v>
       </c>
       <c r="D12">
-        <v>5.694669392076928</v>
+        <v>5.756515479021409</v>
       </c>
       <c r="E12">
-        <v>5.966078988496839</v>
+        <v>5.865604497382995</v>
       </c>
       <c r="F12">
-        <v>31.89319838103211</v>
+        <v>29.15844920009242</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.271015688945186</v>
+        <v>4.221359945036142</v>
       </c>
       <c r="I12">
-        <v>2.961234363353092</v>
+        <v>2.8439579195703</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>22.20554525800533</v>
+        <v>19.9269116298052</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.15755737138248</v>
       </c>
       <c r="M12">
-        <v>16.20207937386906</v>
+        <v>14.52041173785406</v>
       </c>
       <c r="N12">
-        <v>6.523744490072166</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.88994732503854</v>
       </c>
       <c r="P12">
-        <v>14.04288913956126</v>
+        <v>6.654469814533392</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.38251272907734</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.44592068013802</v>
+        <v>17.42478311007474</v>
       </c>
       <c r="C13">
-        <v>11.22716941634405</v>
+        <v>11.89868465797475</v>
       </c>
       <c r="D13">
-        <v>5.78007752098417</v>
+        <v>5.867496049919644</v>
       </c>
       <c r="E13">
-        <v>5.637769184839798</v>
+        <v>5.625332192086955</v>
       </c>
       <c r="F13">
-        <v>30.41177537113816</v>
+        <v>27.89946519183166</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.682188383180993</v>
+        <v>5.640569819474988</v>
       </c>
       <c r="I13">
-        <v>3.018848678344978</v>
+        <v>2.891916398704664</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>21.1403124541977</v>
+        <v>19.07240620377637</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.54723940667157</v>
       </c>
       <c r="M13">
-        <v>15.89953992968561</v>
+        <v>13.83326071839462</v>
       </c>
       <c r="N13">
-        <v>5.675800643931092</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.62011956733905</v>
       </c>
       <c r="P13">
-        <v>13.77780921394431</v>
+        <v>5.805806563085636</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.22139873031422</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.90894111483155</v>
+        <v>16.95873957527939</v>
       </c>
       <c r="C14">
-        <v>11.28252872665288</v>
+        <v>11.90261208972552</v>
       </c>
       <c r="D14">
-        <v>5.847892434950673</v>
+        <v>5.943894350346329</v>
       </c>
       <c r="E14">
-        <v>5.60913362612376</v>
+        <v>5.655318027412089</v>
       </c>
       <c r="F14">
-        <v>29.2506732285715</v>
+        <v>26.91959082620732</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.688525748055925</v>
+        <v>6.649356964222272</v>
       </c>
       <c r="I14">
-        <v>3.088891404552205</v>
+        <v>2.952427180628675</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.3678112485914</v>
+        <v>18.46714294612337</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.13527616256479</v>
       </c>
       <c r="M14">
-        <v>15.5737639199086</v>
+        <v>13.31789094284994</v>
       </c>
       <c r="N14">
-        <v>5.12389427892112</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.32175032495384</v>
       </c>
       <c r="P14">
-        <v>13.63539947674423</v>
+        <v>5.254508240597914</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.15058276536756</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.71506110633917</v>
+        <v>16.78663772416011</v>
       </c>
       <c r="C15">
-        <v>11.26238936987032</v>
+        <v>11.86564985697468</v>
       </c>
       <c r="D15">
-        <v>5.863852260019738</v>
+        <v>5.959243572442135</v>
       </c>
       <c r="E15">
-        <v>5.621396155876287</v>
+        <v>5.680848179981073</v>
       </c>
       <c r="F15">
-        <v>28.90494393819172</v>
+        <v>26.6300277804929</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.924947550177714</v>
+        <v>6.885502162870138</v>
       </c>
       <c r="I15">
-        <v>3.123837753757769</v>
+        <v>2.984123005878823</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>20.15952184040739</v>
+        <v>18.3091523327906</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.03514182635208</v>
       </c>
       <c r="M15">
-        <v>15.43945511410672</v>
+        <v>13.17224049565466</v>
       </c>
       <c r="N15">
-        <v>4.994290730224585</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.1962593467192</v>
       </c>
       <c r="P15">
-        <v>13.61336432082379</v>
+        <v>5.125727520899684</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.14694223812295</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.19528315658144</v>
+        <v>16.30219091956364</v>
       </c>
       <c r="C16">
-        <v>10.87901737078696</v>
+        <v>11.4460973376417</v>
       </c>
       <c r="D16">
-        <v>5.826203717027544</v>
+        <v>5.898090220015686</v>
       </c>
       <c r="E16">
-        <v>5.509144843787408</v>
+        <v>5.569215646364088</v>
       </c>
       <c r="F16">
-        <v>28.49996228101961</v>
+        <v>26.32162367665063</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.747598969673792</v>
+        <v>6.699693002736956</v>
       </c>
       <c r="I16">
-        <v>3.263309253312007</v>
+        <v>3.107934503288373</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.08573347505652</v>
+        <v>18.30848027764325</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.1088472947748</v>
       </c>
       <c r="M16">
-        <v>14.94249352917858</v>
+        <v>13.06450959661546</v>
       </c>
       <c r="N16">
-        <v>4.967735751533375</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.71709386094394</v>
       </c>
       <c r="P16">
-        <v>13.73456723163523</v>
+        <v>5.106415191246171</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.2735124676934</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.08888074586884</v>
+        <v>16.18364952789073</v>
       </c>
       <c r="C17">
-        <v>10.54679193720439</v>
+        <v>11.11468399642333</v>
       </c>
       <c r="D17">
-        <v>5.759558662600814</v>
+        <v>5.809572883705528</v>
       </c>
       <c r="E17">
-        <v>5.397662861897695</v>
+        <v>5.429296026098842</v>
       </c>
       <c r="F17">
-        <v>28.82322596986519</v>
+        <v>26.62010392101685</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.051603330579296</v>
+        <v>5.993960095181064</v>
       </c>
       <c r="I17">
-        <v>3.334152955411129</v>
+        <v>3.171858969199117</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.44102394888959</v>
+        <v>18.63005316748375</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.39156970276969</v>
       </c>
       <c r="M17">
-        <v>14.73522726935993</v>
+        <v>13.25323703760256</v>
       </c>
       <c r="N17">
-        <v>5.233057877863401</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.50837073681234</v>
       </c>
       <c r="P17">
-        <v>13.89940888730261</v>
+        <v>5.376346230654873</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.40678128486151</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.34767178493554</v>
+        <v>16.38725037179398</v>
       </c>
       <c r="C18">
-        <v>10.21287160941467</v>
+        <v>10.81385136608221</v>
       </c>
       <c r="D18">
-        <v>5.671759328454258</v>
+        <v>5.694266199374177</v>
       </c>
       <c r="E18">
-        <v>5.482700423883938</v>
+        <v>5.450736295277913</v>
       </c>
       <c r="F18">
-        <v>29.84196279944186</v>
+        <v>27.50353458888545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.86470205396718</v>
+        <v>4.792704258920568</v>
       </c>
       <c r="I18">
-        <v>3.340911939646436</v>
+        <v>3.177083610799734</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>21.23985229691639</v>
+        <v>19.29626648172996</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.91744700186792</v>
       </c>
       <c r="M18">
-        <v>14.76740295676761</v>
+        <v>13.73193126227964</v>
       </c>
       <c r="N18">
-        <v>5.842448054928701</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.52171325925006</v>
       </c>
       <c r="P18">
-        <v>14.14422433557058</v>
+        <v>5.987505478231752</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.58002011518556</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.84093870085253</v>
+        <v>16.79793574954823</v>
       </c>
       <c r="C19">
-        <v>9.93510595550525</v>
+        <v>10.59043574787452</v>
       </c>
       <c r="D19">
-        <v>5.598149627859241</v>
+        <v>5.586779382880863</v>
       </c>
       <c r="E19">
-        <v>5.996615000061011</v>
+        <v>5.880031509786482</v>
       </c>
       <c r="F19">
-        <v>31.25673792577028</v>
+        <v>28.71081203484255</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.490666007236286</v>
+        <v>3.396417802911009</v>
       </c>
       <c r="I19">
-        <v>3.310412510057334</v>
+        <v>3.153650395442711</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>22.29008362367081</v>
+        <v>20.15054365171181</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.57191977055042</v>
       </c>
       <c r="M19">
-        <v>14.97798732733863</v>
+        <v>14.37412092320824</v>
       </c>
       <c r="N19">
-        <v>6.742601576454109</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.70190175030254</v>
       </c>
       <c r="P19">
-        <v>14.44630732238389</v>
+        <v>6.887214181894851</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.78297342811877</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.00487195768481</v>
+        <v>17.80591718097622</v>
       </c>
       <c r="C20">
-        <v>9.795136262708096</v>
+        <v>10.55960137121947</v>
       </c>
       <c r="D20">
-        <v>5.552240139313199</v>
+        <v>5.487689643819431</v>
       </c>
       <c r="E20">
-        <v>7.422994210941765</v>
+        <v>7.189129914046386</v>
       </c>
       <c r="F20">
-        <v>33.82215266465703</v>
+        <v>30.87237223421733</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.105272091965706</v>
+        <v>1.986095113574093</v>
       </c>
       <c r="I20">
-        <v>3.143429121007673</v>
+        <v>3.011009100832262</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>24.08699329865037</v>
+        <v>21.5741376027729</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.59249639362957</v>
       </c>
       <c r="M20">
-        <v>15.6875529003286</v>
+        <v>15.52892048015261</v>
       </c>
       <c r="N20">
-        <v>8.30987477566832</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.35016628762767</v>
       </c>
       <c r="P20">
-        <v>14.91385927716151</v>
+        <v>8.451510386736464</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>14.06849975644464</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.17042350975549</v>
+        <v>18.86971272476825</v>
       </c>
       <c r="C21">
-        <v>10.41558252438877</v>
+        <v>11.26723288178179</v>
       </c>
       <c r="D21">
-        <v>5.575506798716307</v>
+        <v>5.532415868635088</v>
       </c>
       <c r="E21">
-        <v>7.893577196166923</v>
+        <v>7.617048150991359</v>
       </c>
       <c r="F21">
-        <v>35.25382890911612</v>
+        <v>32.0277815661296</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.76943734544881</v>
+        <v>1.678147550516782</v>
       </c>
       <c r="I21">
-        <v>2.86922493763538</v>
+        <v>2.771688565133825</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>24.7949392997717</v>
+        <v>22.04271248953918</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.74201327360736</v>
       </c>
       <c r="M21">
-        <v>16.69795387724727</v>
+        <v>16.13399433170408</v>
       </c>
       <c r="N21">
-        <v>8.801728080061178</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.31479059568153</v>
       </c>
       <c r="P21">
-        <v>14.8721035050598</v>
+        <v>8.936530707279784</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.94343969561658</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.88408911120505</v>
+        <v>19.52303539930969</v>
       </c>
       <c r="C22">
-        <v>10.81007205316075</v>
+        <v>11.71224969343159</v>
       </c>
       <c r="D22">
-        <v>5.590264450851193</v>
+        <v>5.562993292168934</v>
       </c>
       <c r="E22">
-        <v>8.125592773270254</v>
+        <v>7.825734998114455</v>
       </c>
       <c r="F22">
-        <v>36.12063383732629</v>
+        <v>32.73108710011201</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.568228396197142</v>
+        <v>1.624653156859161</v>
       </c>
       <c r="I22">
-        <v>2.685322032507352</v>
+        <v>2.607591346987016</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>25.21502128136686</v>
+        <v>22.31958105854924</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.81296706100139</v>
       </c>
       <c r="M22">
-        <v>17.31942793736636</v>
+        <v>16.51538863965584</v>
       </c>
       <c r="N22">
-        <v>9.043374149528455</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.90892803096028</v>
       </c>
       <c r="P22">
-        <v>14.83328270704938</v>
+        <v>9.173993897487701</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.85454001106651</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.5254029506462</v>
+        <v>19.19525572458953</v>
       </c>
       <c r="C23">
-        <v>10.58609962640887</v>
+        <v>11.4616575020895</v>
       </c>
       <c r="D23">
-        <v>5.582221976363433</v>
+        <v>5.544667395538156</v>
       </c>
       <c r="E23">
-        <v>8.007628349204191</v>
+        <v>7.719671409718652</v>
       </c>
       <c r="F23">
-        <v>35.70625210851486</v>
+        <v>32.4001667802047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.673684015459842</v>
+        <v>1.590918089239423</v>
       </c>
       <c r="I23">
-        <v>2.77058880699793</v>
+        <v>2.680124145617337</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>25.02958189566645</v>
+        <v>22.20645024811044</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.80089561178895</v>
       </c>
       <c r="M23">
-        <v>16.99718856833581</v>
+        <v>16.33813142014879</v>
       </c>
       <c r="N23">
-        <v>8.914501867336133</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.60074327813452</v>
       </c>
       <c r="P23">
-        <v>14.86659168890558</v>
+        <v>9.047354858512826</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.91145830555041</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.0780560758773</v>
+        <v>17.86943174482349</v>
       </c>
       <c r="C24">
-        <v>9.736202657038531</v>
+        <v>10.50538505847841</v>
       </c>
       <c r="D24">
-        <v>5.549803614312276</v>
+        <v>5.476833641145709</v>
       </c>
       <c r="E24">
-        <v>7.539396925861372</v>
+        <v>7.2986968399449</v>
       </c>
       <c r="F24">
-        <v>34.03708427051568</v>
+        <v>31.06207731420373</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.082891737003849</v>
+        <v>1.963991361646689</v>
       </c>
       <c r="I24">
-        <v>3.122074634158073</v>
+        <v>2.986919677718058</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>24.25952427627616</v>
+        <v>21.72121055954872</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.70668625040814</v>
       </c>
       <c r="M24">
-        <v>15.71233532519487</v>
+        <v>15.6375015746145</v>
       </c>
       <c r="N24">
-        <v>8.411996283620415</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.37135431756102</v>
       </c>
       <c r="P24">
-        <v>14.97416849278662</v>
+        <v>8.553835682730709</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>14.11265364277475</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.39399973627657</v>
+        <v>16.32166992439172</v>
       </c>
       <c r="C25">
-        <v>8.764591999429554</v>
+        <v>9.407548851276786</v>
       </c>
       <c r="D25">
-        <v>5.509639209621817</v>
+        <v>5.399532044598734</v>
       </c>
       <c r="E25">
-        <v>7.006137491292643</v>
+        <v>6.819499656683664</v>
       </c>
       <c r="F25">
-        <v>32.1911662268943</v>
+        <v>29.59210065713009</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.540883779311391</v>
+        <v>2.382384317818727</v>
       </c>
       <c r="I25">
-        <v>3.518271565406275</v>
+        <v>3.334738002467377</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>23.41944332476163</v>
+        <v>21.19675315908685</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.58809781373298</v>
       </c>
       <c r="M25">
-        <v>14.23684444312702</v>
+        <v>14.92063433402889</v>
       </c>
       <c r="N25">
-        <v>7.837883397048855</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.93298922970352</v>
       </c>
       <c r="P25">
-        <v>15.09461091539039</v>
+        <v>7.990875478711355</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.33236126317629</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
